--- a/travel-value-agent/Project ststus and milestones.xlsx
+++ b/travel-value-agent/Project ststus and milestones.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiten\Project\Agents\travel-value-agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E57DAA-CD25-4391-8886-7192D95E63BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4AE843-60DA-4743-BEF4-8E20FAB3F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Source Control" sheetId="2" r:id="rId1"/>
+    <sheet name="process flow" sheetId="3" r:id="rId2"/>
+    <sheet name="source of data" sheetId="4" r:id="rId3"/>
+    <sheet name="Partial Stop" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="234">
   <si>
     <t>travel-value-agent/</t>
   </si>
@@ -667,13 +669,876 @@
   </si>
   <si>
     <t>Adding assumptions without scanning</t>
+  </si>
+  <si>
+    <t>├── main.py                     # Frontend + orchestration</t>
+  </si>
+  <si>
+    <t>├── scraper.py                  # Fetch raw page content (LIVE)</t>
+  </si>
+  <si>
+    <t>├── plan_extractor.py           # Extract structured plans (ALL types)</t>
+  </si>
+  <si>
+    <t>├── scanner.py                  # Your safety net (kept)</t>
+  </si>
+  <si>
+    <t>└── temp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── scrape_raw.json         # Optional, overwritten every run</t>
+  </si>
+  <si>
+    <t>scraper.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ↓</t>
+  </si>
+  <si>
+    <t>scraped_output.json</t>
+  </si>
+  <si>
+    <t>customized_plan_extractor.py   ← ONLY parser</t>
+  </si>
+  <si>
+    <t>data/valid_plans.json</t>
+  </si>
+  <si>
+    <t>main.py (Streamlit UI)</t>
+  </si>
+  <si>
+    <t>Field shown in UI</t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>Actual Source Used</t>
+  </si>
+  <si>
+    <t>How it is derived</t>
+  </si>
+  <si>
+    <t>Live / Cached</t>
+  </si>
+  <si>
+    <t>Temperature (5–15°C)</t>
+  </si>
+  <si>
+    <t>Rule-based inference</t>
+  </si>
+  <si>
+    <t>Internal logic (month-based)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Determined from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Month of Travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using seasonal ranges (winter/summer/monsoon)</t>
+    </r>
+  </si>
+  <si>
+    <t>Recomputed every run</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Online knowledge (best-effort)</t>
+  </si>
+  <si>
+    <r>
+      <t>Wikipedia API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>en.wikipedia.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>If Wikipedia summary mentions meters/altitude/mountain region</t>
+  </si>
+  <si>
+    <t>Cached per place+month</t>
+  </si>
+  <si>
+    <t>Language (Hindi, Garhwali, Kumaoni)</t>
+  </si>
+  <si>
+    <t>Domain inference</t>
+  </si>
+  <si>
+    <t>Internal deterministic mapping</t>
+  </si>
+  <si>
+    <t>Known dominant languages for Uttarakhand region</t>
+  </si>
+  <si>
+    <t>Recomputed</t>
+  </si>
+  <si>
+    <t>Local Food (Kafuli, Aloo ke Gutke, Chainsoo)</t>
+  </si>
+  <si>
+    <t>Domain knowledge</t>
+  </si>
+  <si>
+    <r>
+      <t>Internal curated list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (not Thomas Cook)</t>
+    </r>
+  </si>
+  <si>
+    <t>Canonical regional cuisine of Uttarakhand</t>
+  </si>
+  <si>
+    <t>Avg Cost (₹1,000–₹2,000/day)</t>
+  </si>
+  <si>
+    <t>Heuristic estimate</t>
+  </si>
+  <si>
+    <t>Internal cost model</t>
+  </si>
+  <si>
+    <t>Hill vs plains daily travel cost ranges</t>
+  </si>
+  <si>
+    <t>Places (Haridwar, Rishikesh, etc.)</t>
+  </si>
+  <si>
+    <t>Scraped data</t>
+  </si>
+  <si>
+    <t>Thomas Cook website</t>
+  </si>
+  <si>
+    <r>
+      <t>Extracted from package cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(1N)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(2N)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Live per scrape</t>
+  </si>
+  <si>
+    <t>Nights / Days</t>
+  </si>
+  <si>
+    <t>Parsed from package metadata</t>
+  </si>
+  <si>
+    <t>Price (₹12,100)</t>
+  </si>
+  <si>
+    <t>Discounted price per adult</t>
+  </si>
+  <si>
+    <t>Tour Type (Customized Holidays)</t>
+  </si>
+  <si>
+    <t>Explicit label on card</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Icons/text under package</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear, structured freeze summary + tomorrow’s starting plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so you can shut this down confidently today and restart without confusion.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔒 CHANGE FREEZE CONFIRMATION</t>
+  </si>
+  <si>
+    <t>As of now:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All current functionality is WORKING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No crashes / no KeyErrors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No hard-coded helicopter bias</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filters working correctly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Road travel logic stable (Delhi → Uttarakhand)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Place intelligence stable (offline, deterministic)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caching safe &amp; month-aware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI + scoring + explainability intact</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We will NOT change any file until you explicitly say “unfreeze”.</t>
+    </r>
+  </si>
+  <si>
+    <t>📦 FROZEN ARCHITECTURE (AUTHORITATIVE)</t>
+  </si>
+  <si>
+    <t>Core Data Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ↓</t>
+  </si>
+  <si>
+    <t>customized_plan_extractor.py</t>
+  </si>
+  <si>
+    <t>engine/place_intelligence_agent.py</t>
+  </si>
+  <si>
+    <t>📁 FROZEN FILE LIST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>customized_plan_extractor.py</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ FROZEN</t>
+    </r>
+  </si>
+  <si>
+    <t>Robust plan extraction</t>
+  </si>
+  <si>
+    <t>VIEW DETAILS driven</t>
+  </si>
+  <si>
+    <t>No transport assumptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Produces clean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>valid_plans.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>data/valid_plans.json</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ FROZEN</t>
+    </r>
+  </si>
+  <si>
+    <t>Runtime source of truth</t>
+  </si>
+  <si>
+    <t>Fresh per run</t>
+  </si>
+  <si>
+    <t>No stale plan reuse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>main.py</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ FROZEN</t>
+    </r>
+  </si>
+  <si>
+    <t>Contains:</t>
+  </si>
+  <si>
+    <t>Traveller inputs</t>
+  </si>
+  <si>
+    <t>Filters (nights, budget)</t>
+  </si>
+  <si>
+    <t>Ranking &amp; scoring</t>
+  </si>
+  <si>
+    <t>Road travel display</t>
+  </si>
+  <si>
+    <t>Place details expander</t>
+  </si>
+  <si>
+    <t>Family score logic</t>
+  </si>
+  <si>
+    <t>No broken dependencies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>engine/place_intelligence_agent.py</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ FROZEN</t>
+    </r>
+  </si>
+  <si>
+    <t>Safe default schema (no missing keys)</t>
+  </si>
+  <si>
+    <t>Static India road matrix (Phase-1)</t>
+  </si>
+  <si>
+    <t>Crowd density</t>
+  </si>
+  <si>
+    <t>Senior friendliness</t>
+  </si>
+  <si>
+    <t>Monsoon risk</t>
+  </si>
+  <si>
+    <t>Temperature inference</t>
+  </si>
+  <si>
+    <t>Road fatigue</t>
+  </si>
+  <si>
+    <t>🧠 WHAT IS WORKING (CHECKLIST)</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan extraction</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>Filter by nights</t>
+  </si>
+  <si>
+    <t>Filter by budget</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Kid friendliness</t>
+  </si>
+  <si>
+    <t>Travel fatigue</t>
+  </si>
+  <si>
+    <t>Family score</t>
+  </si>
+  <si>
+    <t>Place details</t>
+  </si>
+  <si>
+    <t>Road distance</t>
+  </si>
+  <si>
+    <t>Offline mode</t>
+  </si>
+  <si>
+    <t>❄️ FREEZE RULES (IMPORTANT)</t>
+  </si>
+  <si>
+    <t>Until unfreeze:</t>
+  </si>
+  <si>
+    <t>❌ No refactoring</t>
+  </si>
+  <si>
+    <t>❌ No new APIs</t>
+  </si>
+  <si>
+    <t>❌ No new fields</t>
+  </si>
+  <si>
+    <t>❌ No UI redesign</t>
+  </si>
+  <si>
+    <t>❌ No file deletion</t>
+  </si>
+  <si>
+    <t>Only allowed:</t>
+  </si>
+  <si>
+    <t>✔ Run extractor</t>
+  </si>
+  <si>
+    <t>✔ Run Streamlit</t>
+  </si>
+  <si>
+    <t>✔ Observe output</t>
+  </si>
+  <si>
+    <t>📅 TOMORROW’S STARTING POINT (READY PLAN)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you come back, we will start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ONE item at a time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cleanly:</t>
+    </r>
+  </si>
+  <si>
+    <t>Priority Order (Recommended)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-city road matrix</t>
+    </r>
+  </si>
+  <si>
+    <t>(Mumbai / Kolkata / Chennai / Hyderabad)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Road fatigue → Family score weighting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crowd-aware scoring</t>
+    </r>
+  </si>
+  <si>
+    <t>High crowd = penalty for kids/seniors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source transparency panel</t>
+    </r>
+  </si>
+  <si>
+    <t>Show “Static model / Inferred / Road matrix”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API swap (optional, later)</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenStreetMap / Mapbox / govt data</t>
+  </si>
+  <si>
+    <t>🟢 How to Resume Tomorrow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just say </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>“Unfreeze and start with item X”</t>
+  </si>
+  <si>
+    <t>I’ll take it from there without breaking anything.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +1591,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -747,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,6 +1643,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,121 +1937,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07B8219-FC32-4116-B617-A083FCB36D88}">
   <dimension ref="B2:B175"/>
   <sheetViews>
@@ -1791,4 +2566,927 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B85C492-6DBC-4AA7-AC5C-F56653755DE2}">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1079D72F-64EE-4454-9078-5D857D113C6F}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA3C4B6-FE8D-4BE4-BF76-1BAD74CD147A}">
+  <dimension ref="B2:C170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="23.25">
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="23.25">
+      <c r="B23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="18">
+      <c r="B25" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="23.25">
+      <c r="B39" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="18">
+      <c r="B41" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="18">
+      <c r="B51" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="18">
+      <c r="B59" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="18">
+      <c r="B77" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="23.25">
+      <c r="B97" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="45">
+      <c r="B100" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="30">
+      <c r="B101" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="30">
+      <c r="B102" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="45">
+      <c r="B104" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="30">
+      <c r="B105" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="30">
+      <c r="B106" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="30">
+      <c r="B107" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="30">
+      <c r="B108" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="30">
+      <c r="B109" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="45">
+      <c r="B110" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="30">
+      <c r="B111" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="30">
+      <c r="B112" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="23.25">
+      <c r="B115" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="23.25">
+      <c r="B139" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="18">
+      <c r="B143" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="23.25">
+      <c r="B164" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>